--- a/src/bill/controllers/files/tabla.xlsx
+++ b/src/bill/controllers/files/tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbeth.Lisbeth-HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C132F890-3F82-4ED7-9BE6-7E4C5EF611CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F158AA0-15D9-4058-BB5B-E04BF9530377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{68F672AF-F280-45E6-8902-33DFFD02ACA8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="368">
   <si>
     <t>id</t>
   </si>
@@ -1019,16 +1019,132 @@
   </si>
   <si>
     <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>2021-11-18</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-18</t>
+  </si>
+  <si>
+    <t>2021-12-25</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-02-05</t>
+  </si>
+  <si>
+    <t>2021-11-06</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2021-07-18</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-11-05</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
+    <t>2022-02-19</t>
+  </si>
+  <si>
+    <t>2022-02-17</t>
+  </si>
+  <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>2022-02-27</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1150,7 +1266,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1190,9 +1306,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,6 +1325,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="1" xr:uid="{4F230680-95E0-46EC-89EF-EBFD753629F9}"/>
@@ -2068,7 +2185,7 @@
   <cols>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="23" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -2087,7 +2204,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2128,14 +2245,14 @@
       <c r="A2" s="6">
         <v>10219</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="15">
-        <v>44376</v>
+      <c r="D2" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -2169,14 +2286,14 @@
       <c r="A3" s="6">
         <v>10235</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="15">
-        <v>44425</v>
+      <c r="D3" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>21</v>
@@ -2210,14 +2327,14 @@
       <c r="A4" s="10">
         <v>10394</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D4" s="15">
-        <v>44469</v>
+      <c r="D4" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>25</v>
@@ -2251,14 +2368,14 @@
       <c r="A5" s="10">
         <v>10408</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="15">
-        <v>44432</v>
+      <c r="D5" s="20" t="s">
+        <v>276</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>26</v>
@@ -2292,14 +2409,14 @@
       <c r="A6" s="10">
         <v>10529</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="15">
-        <v>44444</v>
+      <c r="D6" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>29</v>
@@ -2333,14 +2450,14 @@
       <c r="A7" s="6">
         <v>10240</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="15">
-        <v>44377</v>
+      <c r="D7" s="20" t="s">
+        <v>333</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -2374,14 +2491,14 @@
       <c r="A8" s="10">
         <v>10612</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="15">
-        <v>44463</v>
+      <c r="D8" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>32</v>
@@ -2415,14 +2532,14 @@
       <c r="A9" s="10">
         <v>10644</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="15">
-        <v>44472</v>
+      <c r="D9" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>33</v>
@@ -2456,14 +2573,14 @@
       <c r="A10" s="10">
         <v>1071</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="15">
-        <v>44478</v>
+      <c r="D10" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>31</v>
@@ -2497,14 +2614,14 @@
       <c r="A11" s="10">
         <v>10805</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="15">
-        <v>44518</v>
+      <c r="D11" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>38</v>
@@ -2538,14 +2655,14 @@
       <c r="A12" s="10">
         <v>10891</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="15">
-        <v>44534</v>
+      <c r="D12" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>40</v>
@@ -2579,14 +2696,14 @@
       <c r="A13" s="10">
         <v>10955</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D13" s="15">
-        <v>44548</v>
+      <c r="D13" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>42</v>
@@ -2620,14 +2737,14 @@
       <c r="A14" s="10">
         <v>10998</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="15">
-        <v>44555</v>
+      <c r="D14" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>45</v>
@@ -2661,14 +2778,14 @@
       <c r="A15" s="10">
         <v>1478</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="15">
-        <v>44564</v>
+      <c r="D15" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>47</v>
@@ -2702,14 +2819,14 @@
       <c r="A16" s="10">
         <v>1522</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="15">
-        <v>44574</v>
+      <c r="D16" s="20" t="s">
+        <v>260</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>53</v>
@@ -2743,14 +2860,14 @@
       <c r="A17" s="10">
         <v>1072</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="15">
-        <v>44478</v>
+      <c r="D17" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>31</v>
@@ -2784,14 +2901,14 @@
       <c r="A18" s="10">
         <v>1552</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="15">
-        <v>44582</v>
+      <c r="D18" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>58</v>
@@ -2825,14 +2942,14 @@
       <c r="A19" s="10">
         <v>1591</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="15">
-        <v>44589</v>
+      <c r="D19" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>73</v>
@@ -2866,14 +2983,14 @@
       <c r="A20" s="10">
         <v>11125</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="15">
-        <v>44591</v>
+      <c r="D20" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>74</v>
@@ -2907,14 +3024,14 @@
       <c r="A21" s="10">
         <v>1632</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="15">
-        <v>44596</v>
+      <c r="D21" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>95</v>
@@ -2948,14 +3065,14 @@
       <c r="A22" s="10">
         <v>11163</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="15">
-        <v>44596</v>
+      <c r="D22" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>97</v>
@@ -2989,14 +3106,14 @@
       <c r="A23" s="10">
         <v>11166</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="15">
-        <v>44597</v>
+      <c r="D23" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>51</v>
@@ -3030,14 +3147,14 @@
       <c r="A24" s="10">
         <v>1657</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="15">
-        <v>44601</v>
+      <c r="D24" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>69</v>
@@ -3071,14 +3188,14 @@
       <c r="A25" s="10">
         <v>11201</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="15">
-        <v>44603</v>
+      <c r="D25" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>117</v>
@@ -3112,14 +3229,14 @@
       <c r="A26" s="10">
         <v>11202</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="15">
-        <v>44603</v>
+      <c r="D26" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>97</v>
@@ -3153,14 +3270,14 @@
       <c r="A27" s="10">
         <v>11238</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D27" s="15">
-        <v>44607</v>
+      <c r="D27" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>123</v>
@@ -3194,14 +3311,14 @@
       <c r="A28" s="10">
         <v>1073</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="15">
-        <v>44478</v>
+      <c r="D28" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>31</v>
@@ -3235,14 +3352,14 @@
       <c r="A29" s="10">
         <v>10602</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="D29" s="15">
-        <v>44485</v>
+      <c r="D29" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>31</v>
@@ -3276,14 +3393,14 @@
       <c r="A30" s="10">
         <v>1266</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D30" s="15">
-        <v>44506</v>
+      <c r="D30" s="20" t="s">
+        <v>343</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>36</v>
@@ -3317,14 +3434,14 @@
       <c r="A31" s="10">
         <v>11075</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="15">
-        <v>44582</v>
+      <c r="D31" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>50</v>
@@ -3358,14 +3475,14 @@
       <c r="A32" s="10">
         <v>11108</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="15">
-        <v>44587</v>
+      <c r="D32" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>66</v>
@@ -3399,14 +3516,14 @@
       <c r="A33" s="10">
         <v>11155</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="15">
-        <v>44596</v>
+      <c r="D33" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>64</v>
@@ -3440,14 +3557,14 @@
       <c r="A34" s="10">
         <v>1659</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="15">
-        <v>44601</v>
+      <c r="D34" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>112</v>
@@ -3481,14 +3598,14 @@
       <c r="A35" s="6">
         <v>38</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="15">
-        <v>44189</v>
+      <c r="D35" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>16</v>
@@ -3522,14 +3639,14 @@
       <c r="A36" s="6">
         <v>10163</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="15">
-        <v>44365</v>
+      <c r="D36" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
@@ -3563,14 +3680,14 @@
       <c r="A37" s="6">
         <v>10178</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="15">
-        <v>44365</v>
+      <c r="D37" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>18</v>
@@ -3604,14 +3721,14 @@
       <c r="A38" s="6">
         <v>10184</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D38" s="15">
-        <v>44365</v>
+      <c r="D38" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>19</v>
@@ -3645,14 +3762,14 @@
       <c r="A39" s="6">
         <v>10253</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="15">
-        <v>44395</v>
+      <c r="D39" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>23</v>
@@ -3686,14 +3803,14 @@
       <c r="A40" s="10">
         <v>10384</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D40" s="15">
-        <v>44469</v>
+      <c r="D40" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>24</v>
@@ -3727,14 +3844,14 @@
       <c r="A41" s="10">
         <v>910</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="D41" s="15">
-        <v>44435</v>
+      <c r="D41" s="20" t="s">
+        <v>346</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>27</v>
@@ -3768,14 +3885,14 @@
       <c r="A42" s="10">
         <v>10505</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D42" s="15">
-        <v>44451</v>
+      <c r="D42" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>28</v>
@@ -3809,14 +3926,14 @@
       <c r="A43" s="10">
         <v>10506</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D43" s="15">
-        <v>44451</v>
+      <c r="D43" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>28</v>
@@ -3850,14 +3967,14 @@
       <c r="A44" s="10">
         <v>10507</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D44" s="15">
-        <v>44451</v>
+      <c r="D44" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>28</v>
@@ -3891,14 +4008,14 @@
       <c r="A45" s="10">
         <v>10508</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="15">
-        <v>44451</v>
+      <c r="D45" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>28</v>
@@ -3932,14 +4049,14 @@
       <c r="A46" s="10">
         <v>10509</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D46" s="15">
-        <v>44451</v>
+      <c r="D46" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>28</v>
@@ -3973,14 +4090,14 @@
       <c r="A47" s="10">
         <v>987</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="D47" s="15">
-        <v>44451</v>
+      <c r="D47" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>28</v>
@@ -4014,14 +4131,14 @@
       <c r="A48" s="10">
         <v>10570</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="15">
-        <v>44452</v>
+      <c r="D48" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>30</v>
@@ -4055,14 +4172,14 @@
       <c r="A49" s="10">
         <v>10777</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D49" s="15">
-        <v>44505</v>
+      <c r="D49" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>37</v>
@@ -4096,14 +4213,14 @@
       <c r="A50" s="10">
         <v>10915</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="15">
-        <v>44540</v>
+      <c r="D50" s="20" t="s">
+        <v>256</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>41</v>
@@ -4137,14 +4254,14 @@
       <c r="A51" s="10">
         <v>1539</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="15">
-        <v>44583</v>
+      <c r="D51" s="20" t="s">
+        <v>327</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>56</v>
@@ -4178,14 +4295,14 @@
       <c r="A52" s="10">
         <v>1096</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D52" s="15">
-        <v>44460</v>
+      <c r="D52" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>32</v>
@@ -4219,14 +4336,14 @@
       <c r="A53" s="10">
         <v>1260</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D53" s="15">
-        <v>44494</v>
+      <c r="D53" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>34</v>
@@ -4260,14 +4377,14 @@
       <c r="A54" s="10">
         <v>1262</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D54" s="15">
-        <v>44494</v>
+      <c r="D54" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>35</v>
@@ -4301,14 +4418,14 @@
       <c r="A55" s="10">
         <v>11109</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D55" s="15">
-        <v>44587</v>
+      <c r="D55" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>66</v>
@@ -4340,14 +4457,14 @@
       <c r="A56" s="10">
         <v>10806</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D56" s="15">
-        <v>44518</v>
+      <c r="D56" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>38</v>
@@ -4381,14 +4498,14 @@
       <c r="A57" s="10">
         <v>10807</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D57" s="15">
-        <v>44518</v>
+      <c r="D57" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>38</v>
@@ -4422,14 +4539,14 @@
       <c r="A58" s="10">
         <v>10808</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D58" s="15">
-        <v>44518</v>
+      <c r="D58" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>38</v>
@@ -4463,14 +4580,14 @@
       <c r="A59" s="10">
         <v>10997</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D59" s="15">
-        <v>44556</v>
+      <c r="D59" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>44</v>
@@ -4504,14 +4621,14 @@
       <c r="A60" s="10">
         <v>10999</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D60" s="15">
-        <v>44555</v>
+      <c r="D60" s="20" t="s">
+        <v>340</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>45</v>
@@ -4545,14 +4662,14 @@
       <c r="A61" s="10">
         <v>1475</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D61" s="15">
-        <v>44560</v>
+      <c r="D61" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>46</v>
@@ -4586,14 +4703,14 @@
       <c r="A62" s="10">
         <v>1477</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D62" s="15">
-        <v>44562</v>
+      <c r="D62" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>46</v>
@@ -4627,14 +4744,14 @@
       <c r="A63" s="10">
         <v>11015</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="D63" s="15">
-        <v>44561</v>
+      <c r="D63" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>42</v>
@@ -4668,14 +4785,14 @@
       <c r="A64" s="10">
         <v>11023</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D64" s="15">
-        <v>44566</v>
+      <c r="D64" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>48</v>
@@ -4709,14 +4826,14 @@
       <c r="A65" s="10">
         <v>11024</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="15">
-        <v>44566</v>
+      <c r="D65" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>48</v>
@@ -4750,14 +4867,14 @@
       <c r="A66" s="10">
         <v>11027</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D66" s="15">
-        <v>44568</v>
+      <c r="D66" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>49</v>
@@ -4791,14 +4908,14 @@
       <c r="A67" s="10">
         <v>11028</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D67" s="15">
-        <v>44568</v>
+      <c r="D67" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>49</v>
@@ -4832,14 +4949,14 @@
       <c r="A68" s="10">
         <v>1525</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D68" s="15">
-        <v>44575</v>
+      <c r="D68" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>54</v>
@@ -4873,14 +4990,14 @@
       <c r="A69" s="10">
         <v>1528</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="D69" s="15">
-        <v>44575</v>
+      <c r="D69" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>54</v>
@@ -4914,14 +5031,14 @@
       <c r="A70" s="10">
         <v>1545</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D70" s="15">
-        <v>44580</v>
+      <c r="D70" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>54</v>
@@ -4955,14 +5072,14 @@
       <c r="A71" s="10">
         <v>11074</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="15">
-        <v>44582</v>
+      <c r="D71" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>49</v>
@@ -4996,14 +5113,14 @@
       <c r="A72" s="10">
         <v>1556</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D72" s="15">
-        <v>44588</v>
+      <c r="D72" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>59</v>
@@ -5037,14 +5154,14 @@
       <c r="A73" s="10">
         <v>1558</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D73" s="15">
-        <v>44582</v>
+      <c r="D73" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>60</v>
@@ -5078,14 +5195,14 @@
       <c r="A74" s="10">
         <v>1559</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D74" s="15">
-        <v>44588</v>
+      <c r="D74" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>61</v>
@@ -5119,14 +5236,14 @@
       <c r="A75" s="10">
         <v>1560</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D75" s="15">
-        <v>44588</v>
+      <c r="D75" s="20" t="s">
+        <v>293</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>61</v>
@@ -5160,14 +5277,14 @@
       <c r="A76" s="10">
         <v>1564</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D76" s="15">
-        <v>44583</v>
+      <c r="D76" s="20" t="s">
+        <v>327</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>63</v>
@@ -5201,14 +5318,14 @@
       <c r="A77" s="10">
         <v>11106</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D77" s="15">
-        <v>44587</v>
+      <c r="D77" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>65</v>
@@ -5242,14 +5359,14 @@
       <c r="A78" s="10">
         <v>11107</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="15">
-        <v>44587</v>
+      <c r="D78" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>65</v>
@@ -5283,14 +5400,14 @@
       <c r="A79" s="10">
         <v>1577</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="15">
-        <v>44587</v>
+      <c r="D79" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>70</v>
@@ -5324,14 +5441,14 @@
       <c r="A80" s="10">
         <v>1572</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D80" s="15">
-        <v>44590</v>
+      <c r="D80" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>65</v>
@@ -5365,14 +5482,14 @@
       <c r="A81" s="10">
         <v>1573</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D81" s="15">
-        <v>44591</v>
+      <c r="D81" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>66</v>
@@ -5406,14 +5523,14 @@
       <c r="A82" s="10">
         <v>11113</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="15">
-        <v>44587</v>
+      <c r="D82" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>65</v>
@@ -5447,14 +5564,14 @@
       <c r="A83" s="10">
         <v>11114</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="15">
-        <v>44589</v>
+      <c r="D83" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>66</v>
@@ -5488,14 +5605,14 @@
       <c r="A84" s="10">
         <v>1576</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D84" s="15">
-        <v>44587</v>
+      <c r="D84" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>70</v>
@@ -5529,14 +5646,14 @@
       <c r="A85" s="10">
         <v>1578</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D85" s="15">
-        <v>44587</v>
+      <c r="D85" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>70</v>
@@ -5570,14 +5687,14 @@
       <c r="A86" s="10">
         <v>1604</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D86" s="15">
-        <v>44590</v>
+      <c r="D86" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>70</v>
@@ -5611,14 +5728,14 @@
       <c r="A87" s="10">
         <v>1592</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="15">
-        <v>44589</v>
+      <c r="D87" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>73</v>
@@ -5652,14 +5769,14 @@
       <c r="A88" s="10">
         <v>1593</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="15">
-        <v>44589</v>
+      <c r="D88" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>73</v>
@@ -5693,14 +5810,14 @@
       <c r="A89" s="10">
         <v>11126</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D89" s="15">
-        <v>44591</v>
+      <c r="D89" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>74</v>
@@ -5734,14 +5851,14 @@
       <c r="A90" s="10">
         <v>11127</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D90" s="15">
-        <v>44591</v>
+      <c r="D90" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>74</v>
@@ -5775,14 +5892,14 @@
       <c r="A91" s="10">
         <v>11128</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D91" s="15">
-        <v>44591</v>
+      <c r="D91" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>75</v>
@@ -5816,14 +5933,14 @@
       <c r="A92" s="10">
         <v>1594</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D92" s="15">
-        <v>44589</v>
+      <c r="D92" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>77</v>
@@ -5857,14 +5974,14 @@
       <c r="A93" s="10">
         <v>1598</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D93" s="15">
-        <v>44590</v>
+      <c r="D93" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>80</v>
@@ -5898,14 +6015,14 @@
       <c r="A94" s="10">
         <v>1601</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="15">
-        <v>44590</v>
+      <c r="D94" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>81</v>
@@ -5939,14 +6056,14 @@
       <c r="A95" s="10">
         <v>1602</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="15">
-        <v>44590</v>
+      <c r="D95" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>81</v>
@@ -5980,14 +6097,14 @@
       <c r="A96" s="10">
         <v>1603</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D96" s="15">
-        <v>44590</v>
+      <c r="D96" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>81</v>
@@ -6021,14 +6138,14 @@
       <c r="A97" s="10">
         <v>1605</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="15">
-        <v>44590</v>
+      <c r="D97" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>70</v>
@@ -6062,14 +6179,14 @@
       <c r="A98" s="10">
         <v>1646</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D98" s="15">
-        <v>44600</v>
+      <c r="D98" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>242</v>
@@ -6103,14 +6220,14 @@
       <c r="A99" s="10">
         <v>11134</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D99" s="15">
-        <v>44594</v>
+      <c r="D99" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>81</v>
@@ -6144,14 +6261,14 @@
       <c r="A100" s="10">
         <v>1607</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="15">
-        <v>44590</v>
+      <c r="D100" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>83</v>
@@ -6185,14 +6302,14 @@
       <c r="A101" s="10">
         <v>1608</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D101" s="15">
-        <v>44590</v>
+      <c r="D101" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>83</v>
@@ -6226,14 +6343,14 @@
       <c r="A102" s="10">
         <v>1609</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="D102" s="15">
-        <v>44590</v>
+      <c r="D102" s="20" t="s">
+        <v>353</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>83</v>
@@ -6267,14 +6384,14 @@
       <c r="A103" s="10">
         <v>11140</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D103" s="15">
-        <v>44594</v>
+      <c r="D103" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>84</v>
@@ -6308,14 +6425,14 @@
       <c r="A104" s="10">
         <v>11141</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D104" s="15">
-        <v>44594</v>
+      <c r="D104" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>84</v>
@@ -6349,14 +6466,14 @@
       <c r="A105" s="10">
         <v>11142</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D105" s="15">
-        <v>44594</v>
+      <c r="D105" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>84</v>
@@ -6390,14 +6507,14 @@
       <c r="A106" s="10">
         <v>11146</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D106" s="15">
-        <v>44594</v>
+      <c r="D106" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>66</v>
@@ -6431,14 +6548,14 @@
       <c r="A107" s="10">
         <v>11147</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D107" s="15">
-        <v>44594</v>
+      <c r="D107" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>66</v>
@@ -6472,14 +6589,14 @@
       <c r="A108" s="10">
         <v>1612</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D108" s="15">
-        <v>44593</v>
+      <c r="D108" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>88</v>
@@ -6513,14 +6630,14 @@
       <c r="A109" s="10">
         <v>1613</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D109" s="15">
-        <v>44593</v>
+      <c r="D109" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>88</v>
@@ -6554,14 +6671,14 @@
       <c r="A110" s="10">
         <v>1614</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D110" s="15">
-        <v>44593</v>
+      <c r="D110" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>88</v>
@@ -6595,14 +6712,14 @@
       <c r="A111" s="10">
         <v>11151</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D111" s="15">
-        <v>44594</v>
+      <c r="D111" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>90</v>
@@ -6636,14 +6753,14 @@
       <c r="A112" s="10">
         <v>1622</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D112" s="15">
-        <v>44597</v>
+      <c r="D112" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>84</v>
@@ -6677,14 +6794,14 @@
       <c r="A113" s="10">
         <v>11161</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D113" s="15">
-        <v>44596</v>
+      <c r="D113" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>93</v>
@@ -6718,14 +6835,14 @@
       <c r="A114" s="10">
         <v>1630</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D114" s="15">
-        <v>44596</v>
+      <c r="D114" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>94</v>
@@ -6759,14 +6876,14 @@
       <c r="A115" s="10">
         <v>1642</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D115" s="15">
-        <v>44600</v>
+      <c r="D115" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>242</v>
@@ -6800,14 +6917,14 @@
       <c r="A116" s="10">
         <v>1643</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D116" s="15">
-        <v>44600</v>
+      <c r="D116" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>242</v>
@@ -6841,14 +6958,14 @@
       <c r="A117" s="10">
         <v>1644</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D117" s="15">
-        <v>44600</v>
+      <c r="D117" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>242</v>
@@ -6882,14 +6999,14 @@
       <c r="A118" s="10">
         <v>1645</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D118" s="15">
-        <v>44600</v>
+      <c r="D118" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>242</v>
@@ -6923,14 +7040,14 @@
       <c r="A119" s="10">
         <v>11260</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D119" s="15">
-        <v>44608</v>
+      <c r="D119" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>152</v>
@@ -6964,14 +7081,14 @@
       <c r="A120" s="10">
         <v>1647</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D120" s="15">
-        <v>44600</v>
+      <c r="D120" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>242</v>
@@ -7005,14 +7122,14 @@
       <c r="A121" s="10">
         <v>1649</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D121" s="15">
-        <v>44600</v>
+      <c r="D121" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>242</v>
@@ -7046,14 +7163,14 @@
       <c r="A122" s="10">
         <v>11167</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D122" s="15">
-        <v>44597</v>
+      <c r="D122" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>99</v>
@@ -7087,14 +7204,14 @@
       <c r="A123" s="10">
         <v>11168</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D123" s="15">
-        <v>44597</v>
+      <c r="D123" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>66</v>
@@ -7128,14 +7245,14 @@
       <c r="A124" s="10">
         <v>11169</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D124" s="15">
-        <v>44597</v>
+      <c r="D124" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>93</v>
@@ -7169,14 +7286,14 @@
       <c r="A125" s="10">
         <v>11170</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D125" s="15">
-        <v>44601</v>
+      <c r="D125" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>86</v>
@@ -7210,14 +7327,14 @@
       <c r="A126" s="10">
         <v>11174</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D126" s="15">
-        <v>44608</v>
+      <c r="D126" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>101</v>
@@ -7251,14 +7368,14 @@
       <c r="A127" s="10">
         <v>11181</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D127" s="15">
-        <v>44598</v>
+      <c r="D127" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>44</v>
@@ -7292,14 +7409,14 @@
       <c r="A128" s="10">
         <v>11182</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D128" s="15">
-        <v>44598</v>
+      <c r="D128" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>44</v>
@@ -7333,14 +7450,14 @@
       <c r="A129" s="10">
         <v>11186</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D129" s="15">
-        <v>44608</v>
+      <c r="D129" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>74</v>
@@ -7374,14 +7491,14 @@
       <c r="A130" s="10">
         <v>1650</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D130" s="15">
-        <v>44604</v>
+      <c r="D130" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>105</v>
@@ -7415,14 +7532,14 @@
       <c r="A131" s="10">
         <v>1655</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="D131" s="15">
-        <v>44597</v>
+      <c r="D131" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>107</v>
@@ -7456,14 +7573,14 @@
       <c r="A132" s="10">
         <v>11190</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D132" s="15">
-        <v>44601</v>
+      <c r="D132" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>109</v>
@@ -7497,14 +7614,14 @@
       <c r="A133" s="10">
         <v>11192</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D133" s="15">
-        <v>44601</v>
+      <c r="D133" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>64</v>
@@ -7538,14 +7655,14 @@
       <c r="A134" s="10">
         <v>11193</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D134" s="15">
-        <v>44601</v>
+      <c r="D134" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>90</v>
@@ -7579,14 +7696,14 @@
       <c r="A135" s="10">
         <v>1658</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D135" s="15">
-        <v>44601</v>
+      <c r="D135" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>111</v>
@@ -7620,14 +7737,14 @@
       <c r="A136" s="10">
         <v>1660</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D136" s="15">
-        <v>44601</v>
+      <c r="D136" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>113</v>
@@ -7661,14 +7778,14 @@
       <c r="A137" s="10">
         <v>11199</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D137" s="15">
-        <v>44602</v>
+      <c r="D137" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>116</v>
@@ -7702,14 +7819,14 @@
       <c r="A138" s="10">
         <v>11204</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D138" s="15">
-        <v>44603</v>
+      <c r="D138" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>64</v>
@@ -7743,14 +7860,14 @@
       <c r="A139" s="10">
         <v>1665</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D139" s="15">
-        <v>44601</v>
+      <c r="D139" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>57</v>
@@ -7784,14 +7901,14 @@
       <c r="A140" s="10">
         <v>1666</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D140" s="15">
-        <v>44602</v>
+      <c r="D140" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>47</v>
@@ -7825,14 +7942,14 @@
       <c r="A141" s="10">
         <v>1667</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D141" s="15">
-        <v>44602</v>
+      <c r="D141" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>47</v>
@@ -7866,14 +7983,14 @@
       <c r="A142" s="10">
         <v>1668</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D142" s="15">
-        <v>44602</v>
+      <c r="D142" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>47</v>
@@ -7907,14 +8024,14 @@
       <c r="A143" s="10">
         <v>1669</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D143" s="15">
-        <v>44604</v>
+      <c r="D143" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>118</v>
@@ -7948,14 +8065,14 @@
       <c r="A144" s="10">
         <v>1670</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D144" s="15">
-        <v>44603</v>
+      <c r="D144" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>119</v>
@@ -7989,14 +8106,14 @@
       <c r="A145" s="10">
         <v>11206</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D145" s="15">
-        <v>44603</v>
+      <c r="D145" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>120</v>
@@ -8030,14 +8147,14 @@
       <c r="A146" s="10">
         <v>11207</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D146" s="15">
-        <v>44603</v>
+      <c r="D146" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>33</v>
@@ -8071,14 +8188,14 @@
       <c r="A147" s="10">
         <v>11208</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D147" s="15">
-        <v>44603</v>
+      <c r="D147" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E147" s="11" t="s">
         <v>121</v>
@@ -8112,14 +8229,14 @@
       <c r="A148" s="10">
         <v>11210</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D148" s="15">
-        <v>44603</v>
+      <c r="D148" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>122</v>
@@ -8153,14 +8270,14 @@
       <c r="A149" s="10">
         <v>11211</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="15">
-        <v>44602</v>
+      <c r="D149" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>68</v>
@@ -8194,14 +8311,14 @@
       <c r="A150" s="10">
         <v>11215</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D150" s="15">
-        <v>44603</v>
+      <c r="D150" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E150" s="11" t="s">
         <v>124</v>
@@ -8235,14 +8352,14 @@
       <c r="A151" s="10">
         <v>11216</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D151" s="15">
-        <v>44603</v>
+      <c r="D151" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>76</v>
@@ -8276,14 +8393,14 @@
       <c r="A152" s="10">
         <v>11218</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D152" s="15">
-        <v>44603</v>
+      <c r="D152" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>126</v>
@@ -8317,14 +8434,14 @@
       <c r="A153" s="10">
         <v>1674</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D153" s="15">
-        <v>44602</v>
+      <c r="D153" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>127</v>
@@ -8358,14 +8475,14 @@
       <c r="A154" s="10">
         <v>1675</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D154" s="15">
-        <v>44604</v>
+      <c r="D154" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>128</v>
@@ -8399,14 +8516,14 @@
       <c r="A155" s="10">
         <v>1676</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D155" s="15">
-        <v>44604</v>
+      <c r="D155" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>128</v>
@@ -8440,14 +8557,14 @@
       <c r="A156" s="10">
         <v>1677</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D156" s="15">
-        <v>44604</v>
+      <c r="D156" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>128</v>
@@ -8481,14 +8598,14 @@
       <c r="A157" s="10">
         <v>1678</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D157" s="15">
-        <v>44602</v>
+      <c r="D157" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E157" s="11" t="s">
         <v>70</v>
@@ -8522,14 +8639,14 @@
       <c r="A158" s="10">
         <v>1679</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D158" s="15">
-        <v>44602</v>
+      <c r="D158" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>70</v>
@@ -8563,14 +8680,14 @@
       <c r="A159" s="10">
         <v>1680</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D159" s="15">
-        <v>44603</v>
+      <c r="D159" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>78</v>
@@ -8604,14 +8721,14 @@
       <c r="A160" s="10">
         <v>1681</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D160" s="15">
-        <v>44603</v>
+      <c r="D160" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>58</v>
@@ -8645,14 +8762,14 @@
       <c r="A161" s="10">
         <v>1683</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D161" s="15">
-        <v>44603</v>
+      <c r="D161" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>130</v>
@@ -8686,14 +8803,14 @@
       <c r="A162" s="10">
         <v>1684</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D162" s="15">
-        <v>44603</v>
+      <c r="D162" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>89</v>
@@ -8727,14 +8844,14 @@
       <c r="A163" s="10">
         <v>1690</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D163" s="15">
-        <v>44603</v>
+      <c r="D163" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>81</v>
@@ -8768,14 +8885,14 @@
       <c r="A164" s="10">
         <v>11221</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D164" s="15">
-        <v>44607</v>
+      <c r="D164" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E164" s="11" t="s">
         <v>133</v>
@@ -8809,14 +8926,14 @@
       <c r="A165" s="10">
         <v>11223</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D165" s="15">
-        <v>44607</v>
+      <c r="D165" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>135</v>
@@ -8850,14 +8967,14 @@
       <c r="A166" s="10">
         <v>1691</v>
       </c>
-      <c r="B166" s="18" t="s">
+      <c r="B166" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D166" s="15">
-        <v>44603</v>
+      <c r="D166" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>136</v>
@@ -8891,14 +9008,14 @@
       <c r="A167" s="10">
         <v>1692</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D167" s="15">
-        <v>44606</v>
+      <c r="D167" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>137</v>
@@ -8932,14 +9049,14 @@
       <c r="A168" s="10">
         <v>1693</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B168" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D168" s="15">
-        <v>44604</v>
+      <c r="D168" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="E168" s="11" t="s">
         <v>138</v>
@@ -8973,14 +9090,14 @@
       <c r="A169" s="10">
         <v>11224</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D169" s="15">
-        <v>44607</v>
+      <c r="D169" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E169" s="11" t="s">
         <v>90</v>
@@ -9014,14 +9131,14 @@
       <c r="A170" s="10">
         <v>11225</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D170" s="15">
-        <v>44607</v>
+      <c r="D170" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E170" s="11" t="s">
         <v>97</v>
@@ -9055,14 +9172,14 @@
       <c r="A171" s="10">
         <v>11226</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D171" s="15">
-        <v>44607</v>
+      <c r="D171" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>76</v>
@@ -9096,14 +9213,14 @@
       <c r="A172" s="10">
         <v>11227</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D172" s="15">
-        <v>44607</v>
+      <c r="D172" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>124</v>
@@ -9137,14 +9254,14 @@
       <c r="A173" s="10">
         <v>11229</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D173" s="15">
-        <v>44607</v>
+      <c r="D173" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>126</v>
@@ -9178,14 +9295,14 @@
       <c r="A174" s="10">
         <v>11230</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D174" s="15">
-        <v>44607</v>
+      <c r="D174" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>133</v>
@@ -9219,14 +9336,14 @@
       <c r="A175" s="10">
         <v>11233</v>
       </c>
-      <c r="B175" s="18" t="s">
+      <c r="B175" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D175" s="15">
-        <v>44607</v>
+      <c r="D175" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E175" s="11" t="s">
         <v>121</v>
@@ -9260,14 +9377,14 @@
       <c r="A176" s="10">
         <v>11234</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D176" s="15">
-        <v>44608</v>
+      <c r="D176" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>139</v>
@@ -9301,14 +9418,14 @@
       <c r="A177" s="10">
         <v>11235</v>
       </c>
-      <c r="B177" s="18" t="s">
+      <c r="B177" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D177" s="15">
-        <v>44607</v>
+      <c r="D177" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>122</v>
@@ -9342,14 +9459,14 @@
       <c r="A178" s="10">
         <v>11236</v>
       </c>
-      <c r="B178" s="18" t="s">
+      <c r="B178" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D178" s="15">
-        <v>44608</v>
+      <c r="D178" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E178" s="11" t="s">
         <v>68</v>
@@ -9383,14 +9500,14 @@
       <c r="A179" s="10">
         <v>11239</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B179" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D179" s="15">
-        <v>44607</v>
+      <c r="D179" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>140</v>
@@ -9424,14 +9541,14 @@
       <c r="A180" s="10">
         <v>11240</v>
       </c>
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D180" s="15">
-        <v>44607</v>
+      <c r="D180" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E180" s="11" t="s">
         <v>141</v>
@@ -9465,14 +9582,14 @@
       <c r="A181" s="10">
         <v>11241</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D181" s="15">
-        <v>44607</v>
+      <c r="D181" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>142</v>
@@ -9506,14 +9623,14 @@
       <c r="A182" s="10">
         <v>1694</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B182" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D182" s="15">
-        <v>44607</v>
+      <c r="D182" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>143</v>
@@ -9547,14 +9664,14 @@
       <c r="A183" s="10">
         <v>1695</v>
       </c>
-      <c r="B183" s="18" t="s">
+      <c r="B183" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D183" s="15">
-        <v>44607</v>
+      <c r="D183" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>143</v>
@@ -9588,14 +9705,14 @@
       <c r="A184" s="10">
         <v>1696</v>
       </c>
-      <c r="B184" s="18" t="s">
+      <c r="B184" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="D184" s="15">
-        <v>44607</v>
+      <c r="D184" s="20" t="s">
+        <v>305</v>
       </c>
       <c r="E184" s="11" t="s">
         <v>113</v>
@@ -9629,14 +9746,14 @@
       <c r="A185" s="10">
         <v>11248</v>
       </c>
-      <c r="B185" s="18" t="s">
+      <c r="B185" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D185" s="15">
-        <v>44608</v>
+      <c r="D185" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>71</v>
@@ -9670,14 +9787,14 @@
       <c r="A186" s="10">
         <v>11249</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D186" s="15">
-        <v>44608</v>
+      <c r="D186" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E186" s="11" t="s">
         <v>147</v>
@@ -9711,14 +9828,14 @@
       <c r="A187" s="10">
         <v>11251</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D187" s="15">
-        <v>44608</v>
+      <c r="D187" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E187" s="11" t="s">
         <v>82</v>
@@ -9752,14 +9869,14 @@
       <c r="A188" s="10">
         <v>11252</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D188" s="15">
-        <v>44608</v>
+      <c r="D188" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>148</v>
@@ -9793,14 +9910,14 @@
       <c r="A189" s="10">
         <v>11253</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D189" s="15">
-        <v>44608</v>
+      <c r="D189" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>149</v>
@@ -9834,14 +9951,14 @@
       <c r="A190" s="10">
         <v>11254</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D190" s="15">
-        <v>44608</v>
+      <c r="D190" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E190" s="11" t="s">
         <v>149</v>
@@ -9875,14 +9992,14 @@
       <c r="A191" s="10">
         <v>11256</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C191" s="18" t="s">
+      <c r="C191" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D191" s="15">
-        <v>44608</v>
+      <c r="D191" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E191" s="11" t="s">
         <v>150</v>
@@ -9916,14 +10033,14 @@
       <c r="A192" s="10">
         <v>11257</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D192" s="15">
-        <v>44608</v>
+      <c r="D192" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E192" s="11" t="s">
         <v>82</v>
@@ -9957,14 +10074,14 @@
       <c r="A193" s="10">
         <v>11258</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C193" s="18" t="s">
+      <c r="C193" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D193" s="15">
-        <v>44608</v>
+      <c r="D193" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>151</v>
@@ -9998,14 +10115,14 @@
       <c r="A194" s="10">
         <v>11298</v>
       </c>
-      <c r="B194" s="18" t="s">
+      <c r="B194" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D194" s="15">
-        <v>44611</v>
+      <c r="D194" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E194" s="11" t="s">
         <v>173</v>
@@ -10039,14 +10156,14 @@
       <c r="A195" s="10">
         <v>11261</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C195" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D195" s="15">
-        <v>44608</v>
+      <c r="D195" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E195" s="11" t="s">
         <v>153</v>
@@ -10080,14 +10197,14 @@
       <c r="A196" s="10">
         <v>1699</v>
       </c>
-      <c r="B196" s="18" t="s">
+      <c r="B196" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D196" s="15">
-        <v>44608</v>
+      <c r="D196" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E196" s="11" t="s">
         <v>154</v>
@@ -10121,14 +10238,14 @@
       <c r="A197" s="10">
         <v>1700</v>
       </c>
-      <c r="B197" s="18" t="s">
+      <c r="B197" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C197" s="18" t="s">
+      <c r="C197" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D197" s="15">
-        <v>44608</v>
+      <c r="D197" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E197" s="11" t="s">
         <v>155</v>
@@ -10162,14 +10279,14 @@
       <c r="A198" s="10">
         <v>1701</v>
       </c>
-      <c r="B198" s="18" t="s">
+      <c r="B198" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D198" s="15">
-        <v>44608</v>
+      <c r="D198" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E198" s="11" t="s">
         <v>69</v>
@@ -10203,14 +10320,14 @@
       <c r="A199" s="10">
         <v>11263</v>
       </c>
-      <c r="B199" s="18" t="s">
+      <c r="B199" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C199" s="18" t="s">
+      <c r="C199" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D199" s="15">
-        <v>44608</v>
+      <c r="D199" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>67</v>
@@ -10244,14 +10361,14 @@
       <c r="A200" s="10">
         <v>11264</v>
       </c>
-      <c r="B200" s="18" t="s">
+      <c r="B200" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D200" s="15">
-        <v>44608</v>
+      <c r="D200" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E200" s="11" t="s">
         <v>67</v>
@@ -10285,14 +10402,14 @@
       <c r="A201" s="10">
         <v>11265</v>
       </c>
-      <c r="B201" s="18" t="s">
+      <c r="B201" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C201" s="18" t="s">
+      <c r="C201" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D201" s="15">
-        <v>44608</v>
+      <c r="D201" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E201" s="11" t="s">
         <v>67</v>
@@ -10326,14 +10443,14 @@
       <c r="A202" s="10">
         <v>11266</v>
       </c>
-      <c r="B202" s="18" t="s">
+      <c r="B202" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D202" s="15">
-        <v>44608</v>
+      <c r="D202" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E202" s="11" t="s">
         <v>68</v>
@@ -10367,14 +10484,14 @@
       <c r="A203" s="10">
         <v>11267</v>
       </c>
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C203" s="18" t="s">
+      <c r="C203" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D203" s="15">
-        <v>44608</v>
+      <c r="D203" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E203" s="11" t="s">
         <v>156</v>
@@ -10408,14 +10525,14 @@
       <c r="A204" s="10">
         <v>11268</v>
       </c>
-      <c r="B204" s="18" t="s">
+      <c r="B204" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D204" s="15">
-        <v>44609</v>
+      <c r="D204" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E204" s="11" t="s">
         <v>157</v>
@@ -10449,14 +10566,14 @@
       <c r="A205" s="10">
         <v>11269</v>
       </c>
-      <c r="B205" s="18" t="s">
+      <c r="B205" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C205" s="18" t="s">
+      <c r="C205" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D205" s="15">
-        <v>44608</v>
+      <c r="D205" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E205" s="11" t="s">
         <v>108</v>
@@ -10490,14 +10607,14 @@
       <c r="A206" s="10">
         <v>11271</v>
       </c>
-      <c r="B206" s="18" t="s">
+      <c r="B206" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D206" s="15">
-        <v>44609</v>
+      <c r="D206" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E206" s="11" t="s">
         <v>158</v>
@@ -10531,14 +10648,14 @@
       <c r="A207" s="10">
         <v>11272</v>
       </c>
-      <c r="B207" s="18" t="s">
+      <c r="B207" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C207" s="18" t="s">
+      <c r="C207" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D207" s="15">
-        <v>44609</v>
+      <c r="D207" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E207" s="11" t="s">
         <v>158</v>
@@ -10572,14 +10689,14 @@
       <c r="A208" s="10">
         <v>11273</v>
       </c>
-      <c r="B208" s="18" t="s">
+      <c r="B208" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D208" s="15">
-        <v>44609</v>
+      <c r="D208" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E208" s="11" t="s">
         <v>159</v>
@@ -10613,14 +10730,14 @@
       <c r="A209" s="10">
         <v>11274</v>
       </c>
-      <c r="B209" s="18" t="s">
+      <c r="B209" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C209" s="18" t="s">
+      <c r="C209" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D209" s="15">
-        <v>44609</v>
+      <c r="D209" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E209" s="11" t="s">
         <v>92</v>
@@ -10654,14 +10771,14 @@
       <c r="A210" s="10">
         <v>11275</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D210" s="15">
-        <v>44608</v>
+      <c r="D210" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E210" s="11" t="s">
         <v>160</v>
@@ -10695,14 +10812,14 @@
       <c r="A211" s="10">
         <v>11277</v>
       </c>
-      <c r="B211" s="18" t="s">
+      <c r="B211" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C211" s="18" t="s">
+      <c r="C211" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D211" s="15">
-        <v>44609</v>
+      <c r="D211" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E211" s="11" t="s">
         <v>161</v>
@@ -10736,14 +10853,14 @@
       <c r="A212" s="10">
         <v>11278</v>
       </c>
-      <c r="B212" s="18" t="s">
+      <c r="B212" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D212" s="15">
-        <v>44609</v>
+      <c r="D212" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E212" s="11" t="s">
         <v>162</v>
@@ -10777,14 +10894,14 @@
       <c r="A213" s="10">
         <v>11279</v>
       </c>
-      <c r="B213" s="18" t="s">
+      <c r="B213" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D213" s="15">
-        <v>44609</v>
+      <c r="D213" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E213" s="11" t="s">
         <v>163</v>
@@ -10818,14 +10935,14 @@
       <c r="A214" s="10">
         <v>1702</v>
       </c>
-      <c r="B214" s="18" t="s">
+      <c r="B214" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D214" s="15">
-        <v>44608</v>
+      <c r="D214" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E214" s="11" t="s">
         <v>78</v>
@@ -10859,14 +10976,14 @@
       <c r="A215" s="10">
         <v>1703</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="B215" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D215" s="15">
-        <v>44611</v>
+      <c r="D215" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E215" s="11" t="s">
         <v>67</v>
@@ -10900,14 +11017,14 @@
       <c r="A216" s="10">
         <v>1704</v>
       </c>
-      <c r="B216" s="18" t="s">
+      <c r="B216" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D216" s="15">
-        <v>44608</v>
+      <c r="D216" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E216" s="11" t="s">
         <v>114</v>
@@ -10941,14 +11058,14 @@
       <c r="A217" s="10">
         <v>1705</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D217" s="15">
-        <v>44608</v>
+      <c r="D217" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="E217" s="11" t="s">
         <v>155</v>
@@ -10982,14 +11099,14 @@
       <c r="A218" s="10">
         <v>11281</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="B218" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D218" s="15">
-        <v>44609</v>
+      <c r="D218" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E218" s="11" t="s">
         <v>164</v>
@@ -11023,14 +11140,14 @@
       <c r="A219" s="10">
         <v>11282</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D219" s="15">
-        <v>44611</v>
+      <c r="D219" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E219" s="11" t="s">
         <v>43</v>
@@ -11064,14 +11181,14 @@
       <c r="A220" s="10">
         <v>11283</v>
       </c>
-      <c r="B220" s="18" t="s">
+      <c r="B220" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D220" s="15">
-        <v>44611</v>
+      <c r="D220" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E220" s="11" t="s">
         <v>96</v>
@@ -11105,14 +11222,14 @@
       <c r="A221" s="10">
         <v>11284</v>
       </c>
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C221" s="18" t="s">
+      <c r="C221" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D221" s="15">
-        <v>44611</v>
+      <c r="D221" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>96</v>
@@ -11146,14 +11263,14 @@
       <c r="A222" s="10">
         <v>11285</v>
       </c>
-      <c r="B222" s="18" t="s">
+      <c r="B222" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C222" s="18" t="s">
+      <c r="C222" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D222" s="15">
-        <v>44611</v>
+      <c r="D222" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E222" s="11" t="s">
         <v>165</v>
@@ -11187,14 +11304,14 @@
       <c r="A223" s="10">
         <v>11286</v>
       </c>
-      <c r="B223" s="18" t="s">
+      <c r="B223" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C223" s="18" t="s">
+      <c r="C223" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D223" s="15">
-        <v>44611</v>
+      <c r="D223" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E223" s="11" t="s">
         <v>117</v>
@@ -11228,14 +11345,14 @@
       <c r="A224" s="10">
         <v>1708</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="B224" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="D224" s="15">
-        <v>44609</v>
+      <c r="D224" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E224" s="11" t="s">
         <v>79</v>
@@ -11269,14 +11386,14 @@
       <c r="A225" s="10">
         <v>1709</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B225" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C225" s="18" t="s">
+      <c r="C225" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D225" s="15">
-        <v>44610</v>
+      <c r="D225" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="E225" s="11" t="s">
         <v>167</v>
@@ -11310,14 +11427,14 @@
       <c r="A226" s="10">
         <v>1710</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B226" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D226" s="15">
-        <v>44610</v>
+      <c r="D226" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="E226" s="11" t="s">
         <v>168</v>
@@ -11351,14 +11468,14 @@
       <c r="A227" s="10">
         <v>11288</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D227" s="15">
-        <v>44611</v>
+      <c r="D227" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E227" s="11" t="s">
         <v>99</v>
@@ -11392,14 +11509,14 @@
       <c r="A228" s="10">
         <v>11289</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B228" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D228" s="15">
-        <v>44611</v>
+      <c r="D228" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E228" s="11" t="s">
         <v>52</v>
@@ -11433,14 +11550,14 @@
       <c r="A229" s="10">
         <v>11290</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C229" s="18" t="s">
+      <c r="C229" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D229" s="15">
-        <v>44611</v>
+      <c r="D229" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E229" s="11" t="s">
         <v>116</v>
@@ -11474,14 +11591,14 @@
       <c r="A230" s="10">
         <v>11291</v>
       </c>
-      <c r="B230" s="18" t="s">
+      <c r="B230" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D230" s="15">
-        <v>44611</v>
+      <c r="D230" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E230" s="11" t="s">
         <v>120</v>
@@ -11515,14 +11632,14 @@
       <c r="A231" s="10">
         <v>11292</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C231" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D231" s="15">
-        <v>44611</v>
+      <c r="D231" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E231" s="11" t="s">
         <v>169</v>
@@ -11556,14 +11673,14 @@
       <c r="A232" s="10">
         <v>11293</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D232" s="15">
-        <v>44611</v>
+      <c r="D232" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E232" s="11" t="s">
         <v>139</v>
@@ -11597,14 +11714,14 @@
       <c r="A233" s="10">
         <v>11294</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="B233" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C233" s="18" t="s">
+      <c r="C233" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D233" s="15">
-        <v>44611</v>
+      <c r="D233" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E233" s="11" t="s">
         <v>170</v>
@@ -11638,14 +11755,14 @@
       <c r="A234" s="10">
         <v>11295</v>
       </c>
-      <c r="B234" s="18" t="s">
+      <c r="B234" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D234" s="15">
-        <v>44611</v>
+      <c r="D234" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E234" s="11" t="s">
         <v>100</v>
@@ -11679,14 +11796,14 @@
       <c r="A235" s="10">
         <v>1711</v>
       </c>
-      <c r="B235" s="18" t="s">
+      <c r="B235" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C235" s="18" t="s">
+      <c r="C235" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D235" s="15">
-        <v>44610</v>
+      <c r="D235" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="E235" s="11" t="s">
         <v>57</v>
@@ -11720,14 +11837,14 @@
       <c r="A236" s="10">
         <v>1714</v>
       </c>
-      <c r="B236" s="18" t="s">
+      <c r="B236" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D236" s="15">
-        <v>44611</v>
+      <c r="D236" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E236" s="11" t="s">
         <v>171</v>
@@ -11761,14 +11878,14 @@
       <c r="A237" s="10">
         <v>1715</v>
       </c>
-      <c r="B237" s="18" t="s">
+      <c r="B237" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C237" s="18" t="s">
+      <c r="C237" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D237" s="15">
-        <v>44618</v>
+      <c r="D237" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="E237" s="11" t="s">
         <v>118</v>
@@ -11802,14 +11919,14 @@
       <c r="A238" s="10">
         <v>1716</v>
       </c>
-      <c r="B238" s="18" t="s">
+      <c r="B238" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D238" s="15">
-        <v>44611</v>
+      <c r="D238" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E238" s="11" t="s">
         <v>172</v>
@@ -11843,14 +11960,14 @@
       <c r="A239" s="10">
         <v>11300</v>
       </c>
-      <c r="B239" s="18" t="s">
+      <c r="B239" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C239" s="18" t="s">
+      <c r="C239" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D239" s="15">
-        <v>44611</v>
+      <c r="D239" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E239" s="11" t="s">
         <v>174</v>
@@ -11884,14 +12001,14 @@
       <c r="A240" s="10">
         <v>11301</v>
       </c>
-      <c r="B240" s="18" t="s">
+      <c r="B240" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D240" s="15">
-        <v>44611</v>
+      <c r="D240" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E240" s="11" t="s">
         <v>67</v>
@@ -11925,14 +12042,14 @@
       <c r="A241" s="10">
         <v>11302</v>
       </c>
-      <c r="B241" s="18" t="s">
+      <c r="B241" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C241" s="18" t="s">
+      <c r="C241" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D241" s="15">
-        <v>44611</v>
+      <c r="D241" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E241" s="11" t="s">
         <v>55</v>
@@ -11966,14 +12083,14 @@
       <c r="A242" s="10">
         <v>11303</v>
       </c>
-      <c r="B242" s="18" t="s">
+      <c r="B242" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C242" s="18" t="s">
+      <c r="C242" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D242" s="15">
-        <v>44611</v>
+      <c r="D242" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E242" s="11" t="s">
         <v>175</v>
@@ -12007,14 +12124,14 @@
       <c r="A243" s="10">
         <v>11304</v>
       </c>
-      <c r="B243" s="18" t="s">
+      <c r="B243" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C243" s="18" t="s">
+      <c r="C243" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D243" s="15">
-        <v>44615</v>
+      <c r="D243" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E243" s="11" t="s">
         <v>110</v>
@@ -12048,14 +12165,14 @@
       <c r="A244" s="10">
         <v>11306</v>
       </c>
-      <c r="B244" s="18" t="s">
+      <c r="B244" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D244" s="15">
-        <v>44615</v>
+      <c r="D244" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E244" s="11" t="s">
         <v>176</v>
@@ -12089,14 +12206,14 @@
       <c r="A245" s="10">
         <v>1717</v>
       </c>
-      <c r="B245" s="18" t="s">
+      <c r="B245" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C245" s="18" t="s">
+      <c r="C245" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D245" s="15">
-        <v>44611</v>
+      <c r="D245" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>177</v>
@@ -12130,14 +12247,14 @@
       <c r="A246" s="10">
         <v>1719</v>
       </c>
-      <c r="B246" s="18" t="s">
+      <c r="B246" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="D246" s="15">
-        <v>44611</v>
+      <c r="D246" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="E246" s="11" t="s">
         <v>178</v>
@@ -12171,14 +12288,14 @@
       <c r="A247" s="10">
         <v>1720</v>
       </c>
-      <c r="B247" s="18" t="s">
+      <c r="B247" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C247" s="18" t="s">
+      <c r="C247" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D247" s="15">
-        <v>44614</v>
+      <c r="D247" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E247" s="11" t="s">
         <v>166</v>
@@ -12212,14 +12329,14 @@
       <c r="A248" s="10">
         <v>1721</v>
       </c>
-      <c r="B248" s="18" t="s">
+      <c r="B248" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D248" s="15">
-        <v>44614</v>
+      <c r="D248" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E248" s="11" t="s">
         <v>179</v>
@@ -12253,14 +12370,14 @@
       <c r="A249" s="10">
         <v>1722</v>
       </c>
-      <c r="B249" s="18" t="s">
+      <c r="B249" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C249" s="18" t="s">
+      <c r="C249" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D249" s="15">
-        <v>44614</v>
+      <c r="D249" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E249" s="11" t="s">
         <v>180</v>
@@ -12294,14 +12411,14 @@
       <c r="A250" s="10">
         <v>1723</v>
       </c>
-      <c r="B250" s="18" t="s">
+      <c r="B250" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D250" s="15">
-        <v>44614</v>
+      <c r="D250" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E250" s="11" t="s">
         <v>181</v>
@@ -12335,14 +12452,14 @@
       <c r="A251" s="10">
         <v>1724</v>
       </c>
-      <c r="B251" s="18" t="s">
+      <c r="B251" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C251" s="18" t="s">
+      <c r="C251" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D251" s="15">
-        <v>44614</v>
+      <c r="D251" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E251" s="11" t="s">
         <v>182</v>
@@ -12376,14 +12493,14 @@
       <c r="A252" s="10">
         <v>11307</v>
       </c>
-      <c r="B252" s="18" t="s">
+      <c r="B252" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D252" s="15">
-        <v>44615</v>
+      <c r="D252" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E252" s="11" t="s">
         <v>85</v>
@@ -12417,14 +12534,14 @@
       <c r="A253" s="10">
         <v>11308</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="B253" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C253" s="18" t="s">
+      <c r="C253" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D253" s="15">
-        <v>44615</v>
+      <c r="D253" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E253" s="11" t="s">
         <v>85</v>
@@ -12458,14 +12575,14 @@
       <c r="A254" s="10">
         <v>11309</v>
       </c>
-      <c r="B254" s="18" t="s">
+      <c r="B254" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D254" s="15">
-        <v>44615</v>
+      <c r="D254" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E254" s="11" t="s">
         <v>183</v>
@@ -12499,14 +12616,14 @@
       <c r="A255" s="10">
         <v>11310</v>
       </c>
-      <c r="B255" s="18" t="s">
+      <c r="B255" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C255" s="18" t="s">
+      <c r="C255" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D255" s="15">
-        <v>44615</v>
+      <c r="D255" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E255" s="11" t="s">
         <v>183</v>
@@ -12540,14 +12657,14 @@
       <c r="A256" s="10">
         <v>11311</v>
       </c>
-      <c r="B256" s="18" t="s">
+      <c r="B256" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D256" s="15">
-        <v>44615</v>
+      <c r="D256" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E256" s="11" t="s">
         <v>125</v>
@@ -12581,14 +12698,14 @@
       <c r="A257" s="10">
         <v>11312</v>
       </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C257" s="18" t="s">
+      <c r="C257" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D257" s="15">
-        <v>44615</v>
+      <c r="D257" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E257" s="11" t="s">
         <v>125</v>
@@ -12622,14 +12739,14 @@
       <c r="A258" s="10">
         <v>11313</v>
       </c>
-      <c r="B258" s="18" t="s">
+      <c r="B258" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D258" s="15">
-        <v>44615</v>
+      <c r="D258" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E258" s="11" t="s">
         <v>62</v>
@@ -12663,14 +12780,14 @@
       <c r="A259" s="10">
         <v>11314</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C259" s="18" t="s">
+      <c r="C259" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D259" s="15">
-        <v>44615</v>
+      <c r="D259" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E259" s="11" t="s">
         <v>100</v>
@@ -12704,14 +12821,14 @@
       <c r="A260" s="10">
         <v>1725</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D260" s="15">
-        <v>44614</v>
+      <c r="D260" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E260" s="11" t="s">
         <v>180</v>
@@ -12745,14 +12862,14 @@
       <c r="A261" s="10">
         <v>1726</v>
       </c>
-      <c r="B261" s="18" t="s">
+      <c r="B261" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D261" s="15">
-        <v>44614</v>
+      <c r="D261" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E261" s="11" t="s">
         <v>69</v>
@@ -12786,14 +12903,14 @@
       <c r="A262" s="10">
         <v>1727</v>
       </c>
-      <c r="B262" s="18" t="s">
+      <c r="B262" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C262" s="18" t="s">
+      <c r="C262" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D262" s="15">
-        <v>44614</v>
+      <c r="D262" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="E262" s="11" t="s">
         <v>129</v>
@@ -12827,14 +12944,14 @@
       <c r="A263" s="10">
         <v>1728</v>
       </c>
-      <c r="B263" s="18" t="s">
+      <c r="B263" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C263" s="18" t="s">
+      <c r="C263" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D263" s="15">
-        <v>44617</v>
+      <c r="D263" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E263" s="11" t="s">
         <v>132</v>
@@ -12868,14 +12985,14 @@
       <c r="A264" s="10">
         <v>1729</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D264" s="15">
-        <v>44617</v>
+      <c r="D264" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E264" s="11" t="s">
         <v>184</v>
@@ -12909,14 +13026,14 @@
       <c r="A265" s="10">
         <v>1730</v>
       </c>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C265" s="18" t="s">
+      <c r="C265" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D265" s="15">
-        <v>44615</v>
+      <c r="D265" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E265" s="11" t="s">
         <v>85</v>
@@ -12950,14 +13067,14 @@
       <c r="A266" s="10">
         <v>1732</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="B266" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D266" s="15">
-        <v>44615</v>
+      <c r="D266" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E266" s="11" t="s">
         <v>106</v>
@@ -12991,14 +13108,14 @@
       <c r="A267" s="10">
         <v>1733</v>
       </c>
-      <c r="B267" s="18" t="s">
+      <c r="B267" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C267" s="18" t="s">
+      <c r="C267" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D267" s="15">
-        <v>44615</v>
+      <c r="D267" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E267" s="11" t="s">
         <v>185</v>
@@ -13032,14 +13149,14 @@
       <c r="A268" s="10">
         <v>1734</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D268" s="15">
-        <v>44615</v>
+      <c r="D268" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E268" s="11" t="s">
         <v>185</v>
@@ -13073,14 +13190,14 @@
       <c r="A269" s="10">
         <v>1736</v>
       </c>
-      <c r="B269" s="18" t="s">
+      <c r="B269" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C269" s="18" t="s">
+      <c r="C269" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D269" s="15">
-        <v>44618</v>
+      <c r="D269" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="E269" s="11" t="s">
         <v>183</v>
@@ -13114,14 +13231,14 @@
       <c r="A270" s="10">
         <v>11315</v>
       </c>
-      <c r="B270" s="18" t="s">
+      <c r="B270" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C270" s="18" t="s">
+      <c r="C270" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D270" s="15">
-        <v>44615</v>
+      <c r="D270" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E270" s="11" t="s">
         <v>186</v>
@@ -13155,14 +13272,14 @@
       <c r="A271" s="10">
         <v>11316</v>
       </c>
-      <c r="B271" s="18" t="s">
+      <c r="B271" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C271" s="18" t="s">
+      <c r="C271" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D271" s="15">
-        <v>44615</v>
+      <c r="D271" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E271" s="11" t="s">
         <v>142</v>
@@ -13196,14 +13313,14 @@
       <c r="A272" s="10">
         <v>11317</v>
       </c>
-      <c r="B272" s="18" t="s">
+      <c r="B272" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D272" s="15">
-        <v>44615</v>
+      <c r="D272" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E272" s="11" t="s">
         <v>52</v>
@@ -13237,14 +13354,14 @@
       <c r="A273" s="10">
         <v>11318</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C273" s="18" t="s">
+      <c r="C273" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D273" s="15">
-        <v>44616</v>
+      <c r="D273" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E273" s="11" t="s">
         <v>87</v>
@@ -13278,14 +13395,14 @@
       <c r="A274" s="10">
         <v>11319</v>
       </c>
-      <c r="B274" s="18" t="s">
+      <c r="B274" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D274" s="15">
-        <v>44616</v>
+      <c r="D274" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E274" s="11" t="s">
         <v>160</v>
@@ -13319,14 +13436,14 @@
       <c r="A275" s="10">
         <v>11320</v>
       </c>
-      <c r="B275" s="18" t="s">
+      <c r="B275" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C275" s="18" t="s">
+      <c r="C275" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D275" s="15">
-        <v>44616</v>
+      <c r="D275" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E275" s="11" t="s">
         <v>187</v>
@@ -13360,14 +13477,14 @@
       <c r="A276" s="10">
         <v>11321</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="B276" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D276" s="15">
-        <v>44619</v>
+      <c r="D276" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E276" s="11" t="s">
         <v>104</v>
@@ -13401,14 +13518,14 @@
       <c r="A277" s="10">
         <v>1737</v>
       </c>
-      <c r="B277" s="18" t="s">
+      <c r="B277" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C277" s="18" t="s">
+      <c r="C277" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D277" s="15">
-        <v>44615</v>
+      <c r="D277" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E277" s="11" t="s">
         <v>188</v>
@@ -13442,14 +13559,14 @@
       <c r="A278" s="10">
         <v>1738</v>
       </c>
-      <c r="B278" s="18" t="s">
+      <c r="B278" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D278" s="15">
-        <v>44615</v>
+      <c r="D278" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E278" s="11" t="s">
         <v>103</v>
@@ -13483,14 +13600,14 @@
       <c r="A279" s="10">
         <v>1739</v>
       </c>
-      <c r="B279" s="18" t="s">
+      <c r="B279" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C279" s="18" t="s">
+      <c r="C279" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D279" s="15">
-        <v>44619</v>
+      <c r="D279" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E279" s="11" t="s">
         <v>189</v>
@@ -13524,14 +13641,14 @@
       <c r="A280" s="10">
         <v>1740</v>
       </c>
-      <c r="B280" s="18" t="s">
+      <c r="B280" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D280" s="15">
-        <v>44619</v>
+      <c r="D280" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E280" s="11" t="s">
         <v>151</v>
@@ -13565,14 +13682,14 @@
       <c r="A281" s="10">
         <v>1741</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B281" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C281" s="18" t="s">
+      <c r="C281" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D281" s="15">
-        <v>44619</v>
+      <c r="D281" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E281" s="11" t="s">
         <v>104</v>
@@ -13606,14 +13723,14 @@
       <c r="A282" s="10">
         <v>1742</v>
       </c>
-      <c r="B282" s="18" t="s">
+      <c r="B282" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D282" s="15">
-        <v>44616</v>
+      <c r="D282" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E282" s="11" t="s">
         <v>190</v>
@@ -13647,14 +13764,14 @@
       <c r="A283" s="10">
         <v>1743</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C283" s="18" t="s">
+      <c r="C283" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D283" s="15">
-        <v>44615</v>
+      <c r="D283" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E283" s="11" t="s">
         <v>91</v>
@@ -13688,14 +13805,14 @@
       <c r="A284" s="10">
         <v>1744</v>
       </c>
-      <c r="B284" s="18" t="s">
+      <c r="B284" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D284" s="15">
-        <v>44619</v>
+      <c r="D284" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E284" s="11" t="s">
         <v>145</v>
@@ -13729,14 +13846,14 @@
       <c r="A285" s="10">
         <v>1745</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C285" s="18" t="s">
+      <c r="C285" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D285" s="15">
-        <v>44615</v>
+      <c r="D285" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="E285" s="11" t="s">
         <v>191</v>
@@ -13770,14 +13887,14 @@
       <c r="A286" s="10">
         <v>1746</v>
       </c>
-      <c r="B286" s="18" t="s">
+      <c r="B286" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D286" s="15">
-        <v>44616</v>
+      <c r="D286" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E286" s="11" t="s">
         <v>131</v>
@@ -13811,14 +13928,14 @@
       <c r="A287" s="10">
         <v>1748</v>
       </c>
-      <c r="B287" s="18" t="s">
+      <c r="B287" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C287" s="18" t="s">
+      <c r="C287" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D287" s="15">
-        <v>44616</v>
+      <c r="D287" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E287" s="11" t="s">
         <v>192</v>
@@ -13852,14 +13969,14 @@
       <c r="A288" s="10">
         <v>1749</v>
       </c>
-      <c r="B288" s="18" t="s">
+      <c r="B288" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="C288" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D288" s="15">
-        <v>44616</v>
+      <c r="D288" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E288" s="11" t="s">
         <v>193</v>
@@ -13893,14 +14010,14 @@
       <c r="A289" s="10">
         <v>11322</v>
       </c>
-      <c r="B289" s="18" t="s">
+      <c r="B289" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C289" s="18" t="s">
+      <c r="C289" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D289" s="15">
-        <v>44619</v>
+      <c r="D289" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E289" s="11" t="s">
         <v>39</v>
@@ -13934,14 +14051,14 @@
       <c r="A290" s="10">
         <v>11323</v>
       </c>
-      <c r="B290" s="18" t="s">
+      <c r="B290" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="C290" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D290" s="15">
-        <v>44619</v>
+      <c r="D290" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E290" s="11" t="s">
         <v>194</v>
@@ -13975,14 +14092,14 @@
       <c r="A291" s="10">
         <v>11324</v>
       </c>
-      <c r="B291" s="18" t="s">
+      <c r="B291" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C291" s="18" t="s">
+      <c r="C291" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D291" s="15">
-        <v>44616</v>
+      <c r="D291" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E291" s="11" t="s">
         <v>103</v>
@@ -14016,14 +14133,14 @@
       <c r="A292" s="10">
         <v>11325</v>
       </c>
-      <c r="B292" s="18" t="s">
+      <c r="B292" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C292" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D292" s="15">
-        <v>44619</v>
+      <c r="D292" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E292" s="11" t="s">
         <v>102</v>
@@ -14057,14 +14174,14 @@
       <c r="A293" s="10">
         <v>11326</v>
       </c>
-      <c r="B293" s="18" t="s">
+      <c r="B293" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C293" s="18" t="s">
+      <c r="C293" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D293" s="15">
-        <v>44619</v>
+      <c r="D293" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E293" s="11" t="s">
         <v>146</v>
@@ -14098,14 +14215,14 @@
       <c r="A294" s="10">
         <v>11327</v>
       </c>
-      <c r="B294" s="18" t="s">
+      <c r="B294" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="C294" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D294" s="15">
-        <v>44619</v>
+      <c r="D294" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E294" s="11" t="s">
         <v>195</v>
@@ -14139,14 +14256,14 @@
       <c r="A295" s="10">
         <v>11328</v>
       </c>
-      <c r="B295" s="18" t="s">
+      <c r="B295" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="C295" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D295" s="15">
-        <v>44619</v>
+      <c r="D295" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E295" s="11" t="s">
         <v>196</v>
@@ -14180,14 +14297,14 @@
       <c r="A296" s="10">
         <v>11329</v>
       </c>
-      <c r="B296" s="18" t="s">
+      <c r="B296" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="C296" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D296" s="15">
-        <v>44617</v>
+      <c r="D296" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E296" s="11" t="s">
         <v>197</v>
@@ -14221,14 +14338,14 @@
       <c r="A297" s="10">
         <v>11330</v>
       </c>
-      <c r="B297" s="18" t="s">
+      <c r="B297" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C297" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D297" s="15">
-        <v>44616</v>
+      <c r="D297" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E297" s="11" t="s">
         <v>198</v>
@@ -14262,14 +14379,14 @@
       <c r="A298" s="10">
         <v>11331</v>
       </c>
-      <c r="B298" s="18" t="s">
+      <c r="B298" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="C298" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D298" s="15">
-        <v>44617</v>
+      <c r="D298" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E298" s="11" t="s">
         <v>62</v>
@@ -14303,14 +14420,14 @@
       <c r="A299" s="10">
         <v>11333</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C299" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D299" s="15">
-        <v>44617</v>
+      <c r="D299" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E299" s="11" t="s">
         <v>92</v>
@@ -14344,14 +14461,14 @@
       <c r="A300" s="10">
         <v>11334</v>
       </c>
-      <c r="B300" s="18" t="s">
+      <c r="B300" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D300" s="15">
-        <v>44619</v>
+      <c r="D300" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E300" s="11" t="s">
         <v>71</v>
@@ -14385,14 +14502,14 @@
       <c r="A301" s="10">
         <v>1750</v>
       </c>
-      <c r="B301" s="18" t="s">
+      <c r="B301" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C301" s="18" t="s">
+      <c r="C301" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D301" s="15">
-        <v>44623</v>
+      <c r="D301" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E301" s="11" t="s">
         <v>199</v>
@@ -14426,14 +14543,14 @@
       <c r="A302" s="10">
         <v>1751</v>
       </c>
-      <c r="B302" s="18" t="s">
+      <c r="B302" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D302" s="15">
-        <v>44623</v>
+      <c r="D302" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E302" s="11" t="s">
         <v>199</v>
@@ -14467,14 +14584,14 @@
       <c r="A303" s="10">
         <v>1752</v>
       </c>
-      <c r="B303" s="18" t="s">
+      <c r="B303" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="18" t="s">
+      <c r="C303" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D303" s="15">
-        <v>44623</v>
+      <c r="D303" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E303" s="11" t="s">
         <v>199</v>
@@ -14508,14 +14625,14 @@
       <c r="A304" s="10">
         <v>1753</v>
       </c>
-      <c r="B304" s="18" t="s">
+      <c r="B304" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D304" s="15">
-        <v>44623</v>
+      <c r="D304" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E304" s="11" t="s">
         <v>200</v>
@@ -14549,14 +14666,14 @@
       <c r="A305" s="10">
         <v>1754</v>
       </c>
-      <c r="B305" s="18" t="s">
+      <c r="B305" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C305" s="18" t="s">
+      <c r="C305" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D305" s="15">
-        <v>44623</v>
+      <c r="D305" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E305" s="11" t="s">
         <v>200</v>
@@ -14590,14 +14707,14 @@
       <c r="A306" s="10">
         <v>1755</v>
       </c>
-      <c r="B306" s="18" t="s">
+      <c r="B306" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D306" s="15">
-        <v>44623</v>
+      <c r="D306" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E306" s="11" t="s">
         <v>200</v>
@@ -14631,14 +14748,14 @@
       <c r="A307" s="10">
         <v>1756</v>
       </c>
-      <c r="B307" s="18" t="s">
+      <c r="B307" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C307" s="18" t="s">
+      <c r="C307" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D307" s="15">
-        <v>44623</v>
+      <c r="D307" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E307" s="11" t="s">
         <v>200</v>
@@ -14672,14 +14789,14 @@
       <c r="A308" s="10">
         <v>1757</v>
       </c>
-      <c r="B308" s="18" t="s">
+      <c r="B308" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D308" s="15">
-        <v>44623</v>
+      <c r="D308" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="E308" s="11" t="s">
         <v>200</v>
@@ -14713,14 +14830,14 @@
       <c r="A309" s="10">
         <v>1758</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B309" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C309" s="18" t="s">
+      <c r="C309" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D309" s="15">
-        <v>44616</v>
+      <c r="D309" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="E309" s="11" t="s">
         <v>201</v>
@@ -14754,14 +14871,14 @@
       <c r="A310" s="10">
         <v>1759</v>
       </c>
-      <c r="B310" s="18" t="s">
+      <c r="B310" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D310" s="15">
-        <v>44618</v>
+      <c r="D310" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="E310" s="11" t="s">
         <v>72</v>
@@ -14795,14 +14912,14 @@
       <c r="A311" s="10">
         <v>1760</v>
       </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="18" t="s">
+      <c r="C311" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D311" s="15">
-        <v>44617</v>
+      <c r="D311" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E311" s="11" t="s">
         <v>58</v>
@@ -14836,14 +14953,14 @@
       <c r="A312" s="10">
         <v>1761</v>
       </c>
-      <c r="B312" s="18" t="s">
+      <c r="B312" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D312" s="15">
-        <v>44617</v>
+      <c r="D312" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E312" s="11" t="s">
         <v>202</v>
@@ -14877,14 +14994,14 @@
       <c r="A313" s="10">
         <v>1762</v>
       </c>
-      <c r="B313" s="18" t="s">
+      <c r="B313" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C313" s="18" t="s">
+      <c r="C313" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D313" s="15">
-        <v>44617</v>
+      <c r="D313" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E313" s="11" t="s">
         <v>202</v>
@@ -14918,14 +15035,14 @@
       <c r="A314" s="10">
         <v>1763</v>
       </c>
-      <c r="B314" s="18" t="s">
+      <c r="B314" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C314" s="18" t="s">
+      <c r="C314" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D314" s="15">
-        <v>44621</v>
+      <c r="D314" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E314" s="11" t="s">
         <v>131</v>
@@ -14959,14 +15076,14 @@
       <c r="A315" s="10">
         <v>1764</v>
       </c>
-      <c r="B315" s="18" t="s">
+      <c r="B315" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C315" s="18" t="s">
+      <c r="C315" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D315" s="15">
-        <v>44617</v>
+      <c r="D315" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E315" s="11" t="s">
         <v>89</v>
@@ -15000,14 +15117,14 @@
       <c r="A316" s="10">
         <v>11335</v>
       </c>
-      <c r="B316" s="18" t="s">
+      <c r="B316" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C316" s="18" t="s">
+      <c r="C316" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D316" s="15">
-        <v>44621</v>
+      <c r="D316" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E316" s="11" t="s">
         <v>115</v>
@@ -15041,14 +15158,14 @@
       <c r="A317" s="10">
         <v>11336</v>
       </c>
-      <c r="B317" s="18" t="s">
+      <c r="B317" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C317" s="18" t="s">
+      <c r="C317" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="D317" s="15">
-        <v>44618</v>
+      <c r="D317" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="E317" s="11" t="s">
         <v>186</v>
@@ -15082,14 +15199,14 @@
       <c r="A318" s="10">
         <v>1765</v>
       </c>
-      <c r="B318" s="18" t="s">
+      <c r="B318" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D318" s="15">
-        <v>44621</v>
+      <c r="D318" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E318" s="11" t="s">
         <v>203</v>
@@ -15123,14 +15240,14 @@
       <c r="A319" s="10">
         <v>1766</v>
       </c>
-      <c r="B319" s="18" t="s">
+      <c r="B319" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C319" s="18" t="s">
+      <c r="C319" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D319" s="15">
-        <v>44621</v>
+      <c r="D319" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E319" s="11" t="s">
         <v>204</v>
@@ -15164,14 +15281,14 @@
       <c r="A320" s="10">
         <v>1767</v>
       </c>
-      <c r="B320" s="18" t="s">
+      <c r="B320" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C320" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D320" s="15">
-        <v>44617</v>
+      <c r="D320" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="E320" s="11" t="s">
         <v>134</v>
@@ -15205,14 +15322,14 @@
       <c r="A321" s="10">
         <v>1768</v>
       </c>
-      <c r="B321" s="18" t="s">
+      <c r="B321" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C321" s="18" t="s">
+      <c r="C321" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D321" s="15">
-        <v>44621</v>
+      <c r="D321" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E321" s="11" t="s">
         <v>131</v>
@@ -15246,14 +15363,14 @@
       <c r="A322" s="10">
         <v>1769</v>
       </c>
-      <c r="B322" s="18" t="s">
+      <c r="B322" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C322" s="18" t="s">
+      <c r="C322" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D322" s="15">
-        <v>44621</v>
+      <c r="D322" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E322" s="11" t="s">
         <v>79</v>
@@ -15287,14 +15404,14 @@
       <c r="A323" s="10">
         <v>11337</v>
       </c>
-      <c r="B323" s="18" t="s">
+      <c r="B323" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C323" s="18" t="s">
+      <c r="C323" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D323" s="15">
-        <v>44619</v>
+      <c r="D323" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="E323" s="11" t="s">
         <v>189</v>
@@ -15328,14 +15445,14 @@
       <c r="A324" s="10">
         <v>1771</v>
       </c>
-      <c r="B324" s="18" t="s">
+      <c r="B324" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C324" s="18" t="s">
+      <c r="C324" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D324" s="15">
-        <v>44621</v>
+      <c r="D324" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E324" s="11" t="s">
         <v>242</v>
@@ -15369,14 +15486,14 @@
       <c r="A325" s="10">
         <v>1772</v>
       </c>
-      <c r="B325" s="18" t="s">
+      <c r="B325" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C325" s="18" t="s">
+      <c r="C325" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D325" s="15">
-        <v>44621</v>
+      <c r="D325" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E325" s="11" t="s">
         <v>242</v>
@@ -15410,14 +15527,14 @@
       <c r="A326" s="10">
         <v>1773</v>
       </c>
-      <c r="B326" s="18" t="s">
+      <c r="B326" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C326" s="18" t="s">
+      <c r="C326" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D326" s="15">
-        <v>44621</v>
+      <c r="D326" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E326" s="11" t="s">
         <v>242</v>
@@ -15451,14 +15568,14 @@
       <c r="A327" s="10">
         <v>1774</v>
       </c>
-      <c r="B327" s="18" t="s">
+      <c r="B327" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C327" s="18" t="s">
+      <c r="C327" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D327" s="15">
-        <v>44621</v>
+      <c r="D327" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E327" s="11" t="s">
         <v>242</v>
@@ -15492,14 +15609,14 @@
       <c r="A328" s="10">
         <v>1775</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="B328" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="C328" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D328" s="15">
-        <v>44621</v>
+      <c r="D328" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E328" s="11" t="s">
         <v>242</v>
@@ -15533,14 +15650,14 @@
       <c r="A329" s="10">
         <v>1776</v>
       </c>
-      <c r="B329" s="18" t="s">
+      <c r="B329" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C329" s="18" t="s">
+      <c r="C329" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D329" s="15">
-        <v>44621</v>
+      <c r="D329" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E329" s="11" t="s">
         <v>242</v>
@@ -15574,14 +15691,14 @@
       <c r="A330" s="10">
         <v>1777</v>
       </c>
-      <c r="B330" s="18" t="s">
+      <c r="B330" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="C330" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D330" s="15">
-        <v>44621</v>
+      <c r="D330" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E330" s="11" t="s">
         <v>242</v>
@@ -15615,14 +15732,14 @@
       <c r="A331" s="10">
         <v>1778</v>
       </c>
-      <c r="B331" s="18" t="s">
+      <c r="B331" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="C331" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D331" s="15">
-        <v>44621</v>
+      <c r="D331" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E331" s="11" t="s">
         <v>242</v>
@@ -15656,14 +15773,14 @@
       <c r="A332" s="10">
         <v>1779</v>
       </c>
-      <c r="B332" s="18" t="s">
+      <c r="B332" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D332" s="15">
-        <v>44621</v>
+      <c r="D332" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E332" s="11" t="s">
         <v>242</v>
@@ -15697,14 +15814,14 @@
       <c r="A333" s="10">
         <v>1780</v>
       </c>
-      <c r="B333" s="18" t="s">
+      <c r="B333" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="C333" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D333" s="15">
-        <v>44621</v>
+      <c r="D333" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E333" s="11" t="s">
         <v>242</v>
@@ -15738,14 +15855,14 @@
       <c r="A334" s="10">
         <v>1781</v>
       </c>
-      <c r="B334" s="18" t="s">
+      <c r="B334" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="C334" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D334" s="15">
-        <v>44621</v>
+      <c r="D334" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E334" s="11" t="s">
         <v>242</v>
@@ -15779,14 +15896,14 @@
       <c r="A335" s="10">
         <v>1782</v>
       </c>
-      <c r="B335" s="18" t="s">
+      <c r="B335" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C335" s="18" t="s">
+      <c r="C335" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D335" s="15">
-        <v>44621</v>
+      <c r="D335" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E335" s="11" t="s">
         <v>242</v>
@@ -15820,14 +15937,14 @@
       <c r="A336" s="10">
         <v>1783</v>
       </c>
-      <c r="B336" s="18" t="s">
+      <c r="B336" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C336" s="18" t="s">
+      <c r="C336" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D336" s="15">
-        <v>44621</v>
+      <c r="D336" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E336" s="11" t="s">
         <v>242</v>
@@ -15861,14 +15978,14 @@
       <c r="A337" s="10">
         <v>1785</v>
       </c>
-      <c r="B337" s="18" t="s">
+      <c r="B337" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C337" s="18" t="s">
+      <c r="C337" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D337" s="15">
-        <v>44621</v>
+      <c r="D337" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E337" s="11" t="s">
         <v>242</v>
@@ -15902,14 +16019,14 @@
       <c r="A338" s="10">
         <v>1786</v>
       </c>
-      <c r="B338" s="18" t="s">
+      <c r="B338" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="C338" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D338" s="15">
-        <v>44621</v>
+      <c r="D338" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E338" s="11" t="s">
         <v>205</v>
@@ -15943,14 +16060,14 @@
       <c r="A339" s="10">
         <v>1787</v>
       </c>
-      <c r="B339" s="18" t="s">
+      <c r="B339" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C339" s="18" t="s">
+      <c r="C339" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D339" s="15">
-        <v>44621</v>
+      <c r="D339" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E339" s="11" t="s">
         <v>114</v>
@@ -15984,14 +16101,14 @@
       <c r="A340" s="10">
         <v>1788</v>
       </c>
-      <c r="B340" s="18" t="s">
+      <c r="B340" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C340" s="18" t="s">
+      <c r="C340" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D340" s="15">
-        <v>44621</v>
+      <c r="D340" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E340" s="11" t="s">
         <v>206</v>
@@ -16025,14 +16142,14 @@
       <c r="A341" s="10">
         <v>1789</v>
       </c>
-      <c r="B341" s="18" t="s">
+      <c r="B341" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C341" s="18" t="s">
+      <c r="C341" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D341" s="15">
-        <v>44621</v>
+      <c r="D341" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E341" s="11" t="s">
         <v>207</v>
@@ -16066,14 +16183,14 @@
       <c r="A342" s="10">
         <v>1790</v>
       </c>
-      <c r="B342" s="18" t="s">
+      <c r="B342" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="C342" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D342" s="15">
-        <v>44621</v>
+      <c r="D342" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E342" s="11" t="s">
         <v>208</v>
@@ -16107,14 +16224,14 @@
       <c r="A343" s="10">
         <v>11338</v>
       </c>
-      <c r="B343" s="18" t="s">
+      <c r="B343" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C343" s="18" t="s">
+      <c r="C343" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D343" s="15">
-        <v>44622</v>
+      <c r="D343" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E343" s="11" t="s">
         <v>209</v>
@@ -16148,14 +16265,14 @@
       <c r="A344" s="10">
         <v>11339</v>
       </c>
-      <c r="B344" s="18" t="s">
+      <c r="B344" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D344" s="15">
-        <v>44622</v>
+      <c r="D344" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E344" s="11" t="s">
         <v>52</v>
@@ -16189,14 +16306,14 @@
       <c r="A345" s="10">
         <v>11340</v>
       </c>
-      <c r="B345" s="18" t="s">
+      <c r="B345" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="C345" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D345" s="15">
-        <v>44622</v>
+      <c r="D345" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E345" s="11" t="s">
         <v>144</v>
@@ -16230,14 +16347,14 @@
       <c r="A346" s="10">
         <v>11341</v>
       </c>
-      <c r="B346" s="18" t="s">
+      <c r="B346" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C346" s="18" t="s">
+      <c r="C346" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D346" s="15">
-        <v>44622</v>
+      <c r="D346" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E346" s="11" t="s">
         <v>123</v>
@@ -16271,14 +16388,14 @@
       <c r="A347" s="10">
         <v>1791</v>
       </c>
-      <c r="B347" s="18" t="s">
+      <c r="B347" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C347" s="18" t="s">
+      <c r="C347" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D347" s="15">
-        <v>44621</v>
+      <c r="D347" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E347" s="11" t="s">
         <v>79</v>
@@ -16312,14 +16429,14 @@
       <c r="A348" s="10">
         <v>1792</v>
       </c>
-      <c r="B348" s="18" t="s">
+      <c r="B348" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D348" s="15">
-        <v>44621</v>
+      <c r="D348" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E348" s="11" t="s">
         <v>114</v>
@@ -16353,14 +16470,14 @@
       <c r="A349" s="10">
         <v>1793</v>
       </c>
-      <c r="B349" s="18" t="s">
+      <c r="B349" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C349" s="18" t="s">
+      <c r="C349" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D349" s="15">
-        <v>44621</v>
+      <c r="D349" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E349" s="11" t="s">
         <v>201</v>
@@ -16394,14 +16511,14 @@
       <c r="A350" s="10">
         <v>1794</v>
       </c>
-      <c r="B350" s="18" t="s">
+      <c r="B350" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C350" s="18" t="s">
+      <c r="C350" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D350" s="15">
-        <v>44621</v>
+      <c r="D350" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E350" s="11" t="s">
         <v>131</v>
@@ -16435,14 +16552,14 @@
       <c r="A351" s="10">
         <v>1795</v>
       </c>
-      <c r="B351" s="18" t="s">
+      <c r="B351" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C351" s="18" t="s">
+      <c r="C351" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D351" s="15">
-        <v>44621</v>
+      <c r="D351" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E351" s="11" t="s">
         <v>134</v>
@@ -16476,14 +16593,14 @@
       <c r="A352" s="10">
         <v>1796</v>
       </c>
-      <c r="B352" s="18" t="s">
+      <c r="B352" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C352" s="18" t="s">
+      <c r="C352" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D352" s="15">
-        <v>44621</v>
+      <c r="D352" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E352" s="11" t="s">
         <v>123</v>
@@ -16517,14 +16634,14 @@
       <c r="A353" s="10">
         <v>1797</v>
       </c>
-      <c r="B353" s="18" t="s">
+      <c r="B353" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C353" s="18" t="s">
+      <c r="C353" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D353" s="15">
-        <v>44621</v>
+      <c r="D353" s="20" t="s">
+        <v>366</v>
       </c>
       <c r="E353" s="11" t="s">
         <v>242</v>
@@ -16558,14 +16675,14 @@
       <c r="A354" s="10">
         <v>11342</v>
       </c>
-      <c r="B354" s="18" t="s">
+      <c r="B354" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C354" s="18" t="s">
+      <c r="C354" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D354" s="15">
-        <v>44622</v>
+      <c r="D354" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E354" s="11" t="s">
         <v>210</v>
@@ -16599,14 +16716,14 @@
       <c r="A355" s="10">
         <v>11343</v>
       </c>
-      <c r="B355" s="18" t="s">
+      <c r="B355" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C355" s="18" t="s">
+      <c r="C355" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D355" s="15">
-        <v>44622</v>
+      <c r="D355" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E355" s="11" t="s">
         <v>210</v>
@@ -16640,14 +16757,14 @@
       <c r="A356" s="10">
         <v>11344</v>
       </c>
-      <c r="B356" s="18" t="s">
+      <c r="B356" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C356" s="18" t="s">
+      <c r="C356" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D356" s="15">
-        <v>44622</v>
+      <c r="D356" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E356" s="11" t="s">
         <v>210</v>
@@ -16681,14 +16798,14 @@
       <c r="A357" s="10">
         <v>1798</v>
       </c>
-      <c r="B357" s="18" t="s">
+      <c r="B357" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C357" s="18" t="s">
+      <c r="C357" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D357" s="15">
-        <v>44622</v>
+      <c r="D357" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E357" s="11" t="s">
         <v>166</v>
@@ -16722,14 +16839,14 @@
       <c r="A358" s="10">
         <v>1799</v>
       </c>
-      <c r="B358" s="18" t="s">
+      <c r="B358" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C358" s="18" t="s">
+      <c r="C358" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D358" s="15">
-        <v>44622</v>
+      <c r="D358" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E358" s="11" t="s">
         <v>211</v>
@@ -16763,14 +16880,14 @@
       <c r="A359" s="10">
         <v>1800</v>
       </c>
-      <c r="B359" s="18" t="s">
+      <c r="B359" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C359" s="18" t="s">
+      <c r="C359" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D359" s="15">
-        <v>44622</v>
+      <c r="D359" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E359" s="11" t="s">
         <v>212</v>
@@ -16804,14 +16921,14 @@
       <c r="A360" s="10">
         <v>1801</v>
       </c>
-      <c r="B360" s="18" t="s">
+      <c r="B360" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C360" s="18" t="s">
+      <c r="C360" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D360" s="15">
-        <v>44622</v>
+      <c r="D360" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E360" s="11" t="s">
         <v>98</v>
@@ -16845,14 +16962,14 @@
       <c r="A361" s="10">
         <v>1802</v>
       </c>
-      <c r="B361" s="18" t="s">
+      <c r="B361" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C361" s="18" t="s">
+      <c r="C361" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D361" s="15">
-        <v>44622</v>
+      <c r="D361" s="20" t="s">
+        <v>367</v>
       </c>
       <c r="E361" s="11" t="s">
         <v>168</v>
@@ -16883,52 +17000,52 @@
       </c>
     </row>
     <row r="368" spans="1:15">
-      <c r="B368" s="16"/>
+      <c r="B368" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
     <cfRule type="expression" dxfId="59" priority="60">
-      <formula>$AL2="PAGADA"</formula>
+      <formula>$AK2="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I60 I62:I69 I34:I39 I73:I361">
     <cfRule type="expression" dxfId="58" priority="59">
-      <formula>$U34="PAGADA"</formula>
+      <formula>$T34="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
     <cfRule type="expression" dxfId="57" priority="58">
-      <formula>$U30="PAGADA"</formula>
+      <formula>$T30="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
     <cfRule type="expression" dxfId="56" priority="57">
-      <formula>$U31="PAGADA"</formula>
+      <formula>$T31="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
     <cfRule type="expression" dxfId="55" priority="56">
-      <formula>$U32="PAGADA"</formula>
+      <formula>$T32="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
     <cfRule type="expression" dxfId="54" priority="55">
-      <formula>$U33="PAGADA"</formula>
+      <formula>$T33="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
     <cfRule type="expression" dxfId="53" priority="54">
-      <formula>$U40="PAGADA"</formula>
+      <formula>$T40="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
     <cfRule type="expression" dxfId="52" priority="53">
-      <formula>$U61="PAGADA"</formula>
+      <formula>$T61="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:I72">
     <cfRule type="expression" dxfId="51" priority="52">
-      <formula>$U70="PAGADA"</formula>
+      <formula>$T70="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:J69 J73:J124 J126:J361 J4:J60">
@@ -17053,7 +17170,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
     <cfRule type="expression" dxfId="26" priority="24">
-      <formula>$AL2="PAGADA"</formula>
+      <formula>$AK2="PAGADA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A60 A62:A68 A4:A39 A73:A361">
